--- a/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_15000_2.xlsx
+++ b/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_15000_2.xlsx
@@ -450,12 +450,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': 'White or of European descent'}</t>
+          <t>{'SexualOrientation': 'Straight or heterosexual'}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '1 - 4 hours', 'FormalEducation': 'Master’s degree (MA, MS, M.Eng., MBA, etc.)'}</t>
+          <t>{'DevType': 'Back-end developer'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24271</v>
+        <v>28842</v>
       </c>
       <c r="C2" t="n">
-        <v>75305.94186742087</v>
+        <v>5516.21828962618</v>
       </c>
       <c r="D2" t="n">
-        <v>11382.2763169144</v>
+        <v>-1197.137411587141</v>
       </c>
     </row>
     <row r="3">
@@ -554,909 +554,1245 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25010</v>
+        <v>29526</v>
       </c>
       <c r="C3" t="n">
-        <v>69037.25289973368</v>
+        <v>5617.758312088003</v>
       </c>
       <c r="D3" t="n">
-        <v>5113.587349227208</v>
+        <v>-1095.597389125319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2'}</t>
+          <t>{'FormalEducation': '1'}</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18141</v>
+        <v>17131</v>
       </c>
       <c r="C4" t="n">
-        <v>68174.1421412092</v>
+        <v>5336.323872777189</v>
       </c>
       <c r="D4" t="n">
-        <v>4250.476590702732</v>
+        <v>-1377.031828436133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'DevType': '2'}</t>
+          <t>{'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17900</v>
+        <v>22173</v>
       </c>
       <c r="C5" t="n">
-        <v>67020.51843222066</v>
+        <v>3542.149042873403</v>
       </c>
       <c r="D5" t="n">
-        <v>3096.852881714192</v>
+        <v>-3171.206658339918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'Gender': '1'}</t>
+          <t>{'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27355</v>
+        <v>19738</v>
       </c>
       <c r="C6" t="n">
-        <v>28760.07708329829</v>
+        <v>5820.891848914629</v>
       </c>
       <c r="D6" t="n">
-        <v>-35163.58846720819</v>
+        <v>-892.4638522986925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1'}</t>
+          <t>{'Gender': '1'}</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27379</v>
+        <v>33253</v>
       </c>
       <c r="C7" t="n">
-        <v>66186.82906464252</v>
+        <v>5920.984439082945</v>
       </c>
       <c r="D7" t="n">
-        <v>2263.163514136046</v>
+        <v>-792.3712621303766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20567</v>
+        <v>27379</v>
       </c>
       <c r="C8" t="n">
-        <v>44769.6150714461</v>
+        <v>6509.936391650183</v>
       </c>
       <c r="D8" t="n">
-        <v>-19154.05047906037</v>
+        <v>-203.4193095631381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'Age': '3'}</t>
+          <t>{'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15063</v>
+        <v>24167</v>
       </c>
       <c r="C9" t="n">
-        <v>88402.98647134985</v>
+        <v>7072.162954162452</v>
       </c>
       <c r="D9" t="n">
-        <v>24479.32092084338</v>
+        <v>358.8072529491301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'HDI': '1'}</t>
+          <t>{'Age': '3'}</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25023</v>
+        <v>18401</v>
       </c>
       <c r="C10" t="n">
-        <v>92651.2553000177</v>
+        <v>8048.308572796766</v>
       </c>
       <c r="D10" t="n">
-        <v>28727.58974951123</v>
+        <v>1334.952871583445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1'}</t>
+          <t>{'HDI': '1'}</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20375</v>
+        <v>27581</v>
       </c>
       <c r="C11" t="n">
-        <v>82970.69846509804</v>
+        <v>8280.034330059932</v>
       </c>
       <c r="D11" t="n">
-        <v>19047.03291459157</v>
+        <v>1566.678628846611</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1'}</t>
+          <t>{'GDP': '1'}</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15058</v>
+        <v>15752</v>
       </c>
       <c r="C12" t="n">
-        <v>80151.53721833733</v>
+        <v>3295.830519890884</v>
       </c>
       <c r="D12" t="n">
-        <v>16227.87166783086</v>
+        <v>-3417.525181322438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2'}</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22770</v>
+        <v>19081</v>
       </c>
       <c r="C13" t="n">
-        <v>33500.5330174407</v>
+        <v>9822.797811066226</v>
       </c>
       <c r="D13" t="n">
-        <v>-30423.13253306577</v>
+        <v>3109.442109852905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22529</v>
+        <v>23894</v>
       </c>
       <c r="C14" t="n">
-        <v>77205.08079836208</v>
+        <v>4208.446115890501</v>
       </c>
       <c r="D14" t="n">
-        <v>13281.41524785561</v>
+        <v>-2504.90958532282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17063</v>
+        <v>18239</v>
       </c>
       <c r="C15" t="n">
-        <v>55179.39021199341</v>
+        <v>2972.364938069738</v>
       </c>
       <c r="D15" t="n">
-        <v>-8744.275338513056</v>
+        <v>-3740.990763143584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20675</v>
+        <v>16363</v>
       </c>
       <c r="C16" t="n">
-        <v>106758.1933671348</v>
+        <v>5602.899987220042</v>
       </c>
       <c r="D16" t="n">
-        <v>42834.52781662828</v>
+        <v>-1110.455713993279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2'}</t>
+          <t>{'Gender': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15077</v>
+        <v>27456</v>
       </c>
       <c r="C17" t="n">
-        <v>72448.44105051146</v>
+        <v>5084.527001737077</v>
       </c>
       <c r="D17" t="n">
-        <v>8524.775500004995</v>
+        <v>-1628.828699476245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15397</v>
+        <v>22529</v>
       </c>
       <c r="C18" t="n">
-        <v>74180.88430194776</v>
+        <v>5345.204113474854</v>
       </c>
       <c r="D18" t="n">
-        <v>10257.21875144129</v>
+        <v>-1368.151587738467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23188</v>
+        <v>19952</v>
       </c>
       <c r="C19" t="n">
-        <v>30756.07440513934</v>
+        <v>5741.315462563783</v>
       </c>
       <c r="D19" t="n">
-        <v>-33167.59114536713</v>
+        <v>-972.0402386495389</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Age': '3', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23264</v>
+        <v>15101</v>
       </c>
       <c r="C20" t="n">
-        <v>71635.86104707757</v>
+        <v>7790.015822527435</v>
       </c>
       <c r="D20" t="n">
-        <v>7712.195496571105</v>
+        <v>1076.660121314114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '2'}</t>
+          <t>{'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16812</v>
+        <v>22660</v>
       </c>
       <c r="C21" t="n">
-        <v>49053.37360088436</v>
+        <v>7025.684796894849</v>
       </c>
       <c r="D21" t="n">
-        <v>-14870.29194962211</v>
+        <v>312.3290956815272</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1'}</t>
+          <t>{'GINI': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21710</v>
+        <v>15435</v>
       </c>
       <c r="C22" t="n">
-        <v>97371.55623112104</v>
+        <v>7774.367462050464</v>
       </c>
       <c r="D22" t="n">
-        <v>33447.89068061457</v>
+        <v>1061.011760837143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17057</v>
+        <v>18192</v>
       </c>
       <c r="C23" t="n">
-        <v>16395.99367947712</v>
+        <v>2404.812213119229</v>
       </c>
       <c r="D23" t="n">
-        <v>-47527.67187102935</v>
+        <v>-4308.543488094092</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'HoursComputer': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16908</v>
+        <v>16690</v>
       </c>
       <c r="C24" t="n">
-        <v>70695.42976420479</v>
+        <v>4361.051980132219</v>
       </c>
       <c r="D24" t="n">
-        <v>6771.76421369832</v>
+        <v>-2352.303721081103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15406</v>
+        <v>27820</v>
       </c>
       <c r="C25" t="n">
-        <v>100498.0092311445</v>
+        <v>4860.761884746209</v>
       </c>
       <c r="D25" t="n">
-        <v>36574.34368063799</v>
+        <v>-1852.593816467112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16852</v>
+        <v>23264</v>
       </c>
       <c r="C26" t="n">
-        <v>21638.64591757978</v>
+        <v>5618.412897795355</v>
       </c>
       <c r="D26" t="n">
-        <v>-42285.01963292669</v>
+        <v>-1094.942803417966</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16631</v>
+        <v>19464</v>
       </c>
       <c r="C27" t="n">
-        <v>68169.46926137299</v>
+        <v>5774.123848787556</v>
       </c>
       <c r="D27" t="n">
-        <v>4245.803710866516</v>
+        <v>-939.2318524257653</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'HDI': '1'}</t>
+          <t>{'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15175</v>
+        <v>15934</v>
       </c>
       <c r="C28" t="n">
-        <v>115605.0458847686</v>
+        <v>7355.426207414689</v>
       </c>
       <c r="D28" t="n">
-        <v>51681.38033426217</v>
+        <v>642.0705062013676</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25910</v>
+        <v>23773</v>
       </c>
       <c r="C29" t="n">
-        <v>29696.54061095317</v>
+        <v>7095.77558069452</v>
       </c>
       <c r="D29" t="n">
-        <v>-34227.12493955331</v>
+        <v>382.4198794811982</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18813</v>
+        <v>16046</v>
       </c>
       <c r="C30" t="n">
-        <v>-13125.82647387776</v>
+        <v>7226.922415426796</v>
       </c>
       <c r="D30" t="n">
-        <v>-77049.49202438424</v>
+        <v>513.5667142134744</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'FormalEducation': '1'}</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23143</v>
+        <v>16065</v>
       </c>
       <c r="C31" t="n">
-        <v>51877.44343435086</v>
+        <v>4156.361432148196</v>
       </c>
       <c r="D31" t="n">
-        <v>-12046.22211615561</v>
+        <v>-2556.994269065125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18715</v>
+        <v>21070</v>
       </c>
       <c r="C32" t="n">
-        <v>47513.09870580388</v>
+        <v>2140.616974317039</v>
       </c>
       <c r="D32" t="n">
-        <v>-16410.56684470259</v>
+        <v>-4572.738726896283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23146</v>
+        <v>16908</v>
       </c>
       <c r="C33" t="n">
-        <v>92329.32285938319</v>
+        <v>3943.333030186835</v>
       </c>
       <c r="D33" t="n">
-        <v>28405.65730887672</v>
+        <v>-2770.022671026486</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17336</v>
+        <v>15506</v>
       </c>
       <c r="C34" t="n">
-        <v>61913.38770942803</v>
+        <v>6360.879966712541</v>
       </c>
       <c r="D34" t="n">
-        <v>-2010.277841078438</v>
+        <v>-352.4757345007802</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19121</v>
+        <v>17185</v>
       </c>
       <c r="C35" t="n">
-        <v>36233.24044087317</v>
+        <v>3962.0157917935</v>
       </c>
       <c r="D35" t="n">
-        <v>-27690.4251096333</v>
+        <v>-2751.339909419821</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18956</v>
+        <v>18591</v>
       </c>
       <c r="C36" t="n">
-        <v>85205.49734644298</v>
+        <v>5759.491004058506</v>
       </c>
       <c r="D36" t="n">
-        <v>21281.83179593651</v>
+        <v>-953.8646971548151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HoursComputer': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17771</v>
+        <v>15402</v>
       </c>
       <c r="C37" t="n">
-        <v>114013.4621285526</v>
+        <v>6060.471993983761</v>
       </c>
       <c r="D37" t="n">
-        <v>50089.79657804617</v>
+        <v>-652.8837072295601</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'HoursComputer': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21544</v>
+        <v>15321</v>
       </c>
       <c r="C38" t="n">
-        <v>34403.67592435614</v>
+        <v>6262.554982791322</v>
       </c>
       <c r="D38" t="n">
-        <v>-29519.98962615033</v>
+        <v>-450.8007184219996</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15834</v>
+        <v>25910</v>
       </c>
       <c r="C39" t="n">
-        <v>-18920.16786688082</v>
+        <v>6471.012774252379</v>
       </c>
       <c r="D39" t="n">
-        <v>-82843.8334173873</v>
+        <v>-242.3429269609423</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19359</v>
+        <v>22568</v>
       </c>
       <c r="C40" t="n">
-        <v>59450.14468615378</v>
+        <v>6660.009269424866</v>
       </c>
       <c r="D40" t="n">
-        <v>-4473.520864352686</v>
+        <v>-53.34643178845545</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15532</v>
+        <v>17245</v>
       </c>
       <c r="C41" t="n">
-        <v>57615.80761633073</v>
+        <v>8060.128048085273</v>
       </c>
       <c r="D41" t="n">
-        <v>-6307.857934175743</v>
+        <v>1346.772346871951</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19133</v>
+        <v>25944</v>
       </c>
       <c r="C42" t="n">
-        <v>106627.0830684059</v>
+        <v>7219.315451383841</v>
       </c>
       <c r="D42" t="n">
-        <v>42703.41751789946</v>
+        <v>505.9597501705193</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'GINI': '2', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22014</v>
+        <v>17827</v>
       </c>
       <c r="C43" t="n">
-        <v>31756.87735016486</v>
+        <v>9167.440434295811</v>
       </c>
       <c r="D43" t="n">
-        <v>-32166.78820034161</v>
+        <v>2454.08473308249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15339</v>
+        <v>18715</v>
       </c>
       <c r="C44" t="n">
-        <v>-14768.03598932514</v>
+        <v>5443.202083884486</v>
       </c>
       <c r="D44" t="n">
-        <v>-78691.70153983161</v>
+        <v>-1270.153617328835</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20079</v>
+        <v>23146</v>
       </c>
       <c r="C45" t="n">
-        <v>53460.04447893988</v>
+        <v>7669.000695259265</v>
       </c>
       <c r="D45" t="n">
-        <v>-10463.62107156659</v>
+        <v>955.6449940459433</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15301</v>
+        <v>18755</v>
       </c>
       <c r="C46" t="n">
-        <v>52077.57302570326</v>
+        <v>8440.872413111409</v>
       </c>
       <c r="D46" t="n">
-        <v>-11846.09252480321</v>
+        <v>1727.516711898087</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>20128</v>
+        <v>15752</v>
       </c>
       <c r="C47" t="n">
-        <v>97021.7782667594</v>
+        <v>3295.830519890884</v>
       </c>
       <c r="D47" t="n">
-        <v>33098.11271625293</v>
+        <v>-3417.525181322438</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16152</v>
+        <v>22758</v>
       </c>
       <c r="C48" t="n">
-        <v>17281.7111565299</v>
+        <v>4081.320153739394</v>
       </c>
       <c r="D48" t="n">
-        <v>-46641.95439397657</v>
+        <v>-2632.035547473928</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15929</v>
+        <v>18956</v>
       </c>
       <c r="C49" t="n">
-        <v>21614.03343870061</v>
+        <v>4707.214742762342</v>
       </c>
       <c r="D49" t="n">
-        <v>-42309.63211180586</v>
+        <v>-2006.140958450979</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1', 'Gender': '1'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>17563</v>
+        <v>15886</v>
       </c>
       <c r="C50" t="n">
-        <v>-13613.79048908756</v>
+        <v>3923.495586716469</v>
       </c>
       <c r="D50" t="n">
-        <v>-77537.45603959402</v>
+        <v>-2789.860114496852</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>21900</v>
+        <v>19358</v>
       </c>
       <c r="C51" t="n">
-        <v>51568.43116287054</v>
+        <v>5757.284204945694</v>
       </c>
       <c r="D51" t="n">
-        <v>-12355.23438763593</v>
+        <v>-956.0714962676275</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15786</v>
+        <v>17486</v>
       </c>
       <c r="C52" t="n">
-        <v>-12776.45826555831</v>
+        <v>1946.722347701861</v>
       </c>
       <c r="D52" t="n">
-        <v>-76700.12381606478</v>
+        <v>-4766.633353511461</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15673</v>
+        <v>15555</v>
       </c>
       <c r="C53" t="n">
-        <v>61725.55326533812</v>
+        <v>5831.184976203039</v>
       </c>
       <c r="D53" t="n">
-        <v>-2198.112285168354</v>
+        <v>-882.1707250102827</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>18136</v>
+        <v>21544</v>
       </c>
       <c r="C54" t="n">
-        <v>37190.56623534991</v>
+        <v>5551.102665918384</v>
       </c>
       <c r="D54" t="n">
-        <v>-26733.09931515656</v>
+        <v>-1162.253035294938</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>16648</v>
+        <v>18868</v>
       </c>
       <c r="C55" t="n">
-        <v>62090.51769338568</v>
+        <v>5634.634999361796</v>
       </c>
       <c r="D55" t="n">
-        <v>-1833.147857120792</v>
+        <v>-1078.720701851526</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>16486</v>
+        <v>21574</v>
       </c>
       <c r="C56" t="n">
-        <v>113801.9274549091</v>
+        <v>6412.706957617019</v>
       </c>
       <c r="D56" t="n">
-        <v>49878.26190440262</v>
+        <v>-300.6487435963027</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>18306</v>
+        <v>15532</v>
       </c>
       <c r="C57" t="n">
-        <v>59271.66228835012</v>
+        <v>4235.626288481227</v>
       </c>
       <c r="D57" t="n">
-        <v>-4652.003262156351</v>
+        <v>-2477.729412732095</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1', 'Gender': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>19043</v>
+        <v>19133</v>
       </c>
       <c r="C58" t="n">
-        <v>53032.9745932775</v>
+        <v>6167.928095255636</v>
       </c>
       <c r="D58" t="n">
-        <v>-10890.69095722897</v>
+        <v>-545.427605957686</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Gender': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B59" t="n">
+        <v>15574</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7178.223410287983</v>
+      </c>
+      <c r="D59" t="n">
+        <v>464.8677090746614</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>17295</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1412.889200370405</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-5300.466500842917</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>15737</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4570.176052280543</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-2143.179648932779</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>22014</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5982.017555487582</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-731.3381457257392</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Dependents': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>18145</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5331.204181537214</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-1382.151519676107</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'HDI': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>22370</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6176.689060932703</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-536.6666402806186</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>15301</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3964.682726108012</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-2748.67297510531</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>20128</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6694.06933007496</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-19.28637113836157</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>{'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>15601</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6881.083296062101</v>
+      </c>
+      <c r="D67" t="n">
+        <v>167.7275948487795</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>16152</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3274.466712898681</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-3438.88898831464</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>16344</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2289.159933879372</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-4424.195767333949</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>17563</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5093.2900472175</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-1620.065653995822</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>21900</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7566.667087338407</v>
+      </c>
+      <c r="D71" t="n">
+        <v>853.3113861250858</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>17456</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7663.615191867112</v>
+      </c>
+      <c r="D72" t="n">
+        <v>950.2594906537906</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>{'Dependents': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>15673</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6373.699265659056</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-339.656435554266</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>18136</v>
+      </c>
+      <c r="C74" t="n">
+        <v>5289.423209809513</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-1423.932491403809</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>15007</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4003.268385218564</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-2710.087315994757</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>18438</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5619.548811679768</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-1093.806889533554</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>16486</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5666.495872135472</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-1046.859829077849</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>18306</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6286.555506924179</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-426.8001942891424</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>19043</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7073.278421988637</v>
+      </c>
+      <c r="D79" t="n">
+        <v>359.9227207753156</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
         <v>15779</v>
       </c>
-      <c r="C59" t="n">
-        <v>61735.94468987677</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-2187.720860629699</v>
+      <c r="C80" t="n">
+        <v>6251.332734797039</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-462.0229664162825</v>
       </c>
     </row>
   </sheetData>

--- a/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_15000_2.xlsx
+++ b/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_15000_2.xlsx
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -790,7 +790,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -806,7 +806,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -886,7 +886,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'Student': '1'}</t>
+          <t>{'Student': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -998,7 +998,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'Gender': '1'}</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1094,7 +1094,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'RaceEthnicity': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1110,7 +1110,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1206,7 +1206,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1222,7 +1222,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1238,7 +1238,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1254,7 +1254,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1286,7 +1286,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1302,7 +1302,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1318,7 +1318,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1350,7 +1350,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1366,7 +1366,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1382,7 +1382,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1398,7 +1398,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1414,7 +1414,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1430,7 +1430,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1446,7 +1446,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1478,7 +1478,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'HoursComputer': '2', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'HoursComputer': '2'}</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1542,7 +1542,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Dependents': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1558,7 +1558,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1574,7 +1574,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1622,7 +1622,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
+          <t>{'Gender': '1', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1638,7 +1638,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1654,7 +1654,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1670,7 +1670,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1686,7 +1686,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1702,7 +1702,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Gender': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1718,7 +1718,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1734,7 +1734,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1750,7 +1750,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1766,7 +1766,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'Gender': '1', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1782,7 +1782,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Gender': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'Gender': '1', 'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B80" t="n">
